--- a/public/preprocessing/@AzzanoMalano.xlsx
+++ b/public/preprocessing/@AzzanoMalano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21251</v>
+        <v>24925</v>
       </c>
       <c r="C2" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>yabegitulah</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['yabegitulah']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['yabegitulah']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['yabegitulah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21252</v>
+        <v>24926</v>
       </c>
       <c r="C3" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt thinker beautiful people do beautiful things</t>
+          <t>hahhahahahah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'thinker', 'beautiful', 'people', 'do', 'beautiful', 'things']</t>
+          <t>['hahhahahahah']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['hahhahahahah']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['thinker', 'beautiful', 'people', 'do', 'beautiful', 'things']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['thinker', 'beautiful', 'people', 'do', 'beautiful', 'things']</t>
+          <t>['hahhahahahah']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['hahhahahahah']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21253</v>
+        <v>24927</v>
       </c>
       <c r="C4" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ada yang baru nihhh</t>
+          <t>bukan dari gue kan iz hahahhaha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ada', 'yang', 'baru', 'nihhh']</t>
+          <t>['bukan', 'dari', 'gue', 'kan', 'iz', 'hahahhaha']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bukan', 'dari', 'gue', 'kan', 'iya', 'haha']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['nihhh']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['nihhh']</t>
+          <t>['gue', 'iya', 'haha']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['gue', 'iya', 'haha']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21254</v>
+        <v>24928</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kegabutan</t>
+          <t>kenapa harus di pertambahan waktu si anj</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kegabutan']</t>
+          <t>['kenapa', 'harus', 'di', 'pertambahan', 'waktu', 'si', 'anj']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kenapa', 'harus', 'di', 'pertambahan', 'waktu', 'sih', 'anjing']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kegabutan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kegabutan']</t>
+          <t>['pertambahan', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['tambah', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21255</v>
+        <v>24929</v>
       </c>
       <c r="C6" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bangsat</t>
+          <t>em red</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>['em', 'red']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['em', 'red']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>['em', 'red']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['em', 'red']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21256</v>
+        <v>24930</v>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>orang islam marah gak ya kalo duit pajak miras di korupsi atau yang berhubungan hahaha</t>
+          <t>smack down aja nenek lo nyom biar gak ngomel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['orang', 'islam', 'marah', 'gak', 'ya', 'kalo', 'duit', 'pajak', 'miras', 'di', 'korupsi', 'atau', 'yang', 'berhubungan', 'hahaha']</t>
+          <t>['smack', 'down', 'aja', 'nenek', 'lo', 'nyom', 'biar', 'gak', 'ngomel']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['smack', 'down', 'saja', 'nenek', 'kamu', 'nyom', 'biar', 'tidak', 'ngomel']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['orang', 'islam', 'marah', 'duit', 'pajak', 'miras', 'korupsi', 'berhubungan', 'hahaha']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['orang', 'islam', 'marah', 'duit', 'pajak', 'miras', 'korupsi', 'hubung', 'hahaha']</t>
+          <t>['smack', 'down', 'nenek', 'nyom', 'ngomel']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['smack', 'down', 'nenek', 'nyom', 'ngomel']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21257</v>
+        <v>24931</v>
       </c>
       <c r="C8" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>asikk dicabutt niii</t>
+          <t>in the heart of the sea baguss</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['asikk', 'dicabutt', 'niii']</t>
+          <t>['in', 'the', 'heart', 'of', 'the', 'sea', 'baguss']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['in', 'the', 'heart', 'of', 'the', 'sea', 'bagus']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['asikk', 'dicabutt', 'niii']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['asikk', 'dicabutt', 'niii']</t>
+          <t>['in', 'the', 'heart', 'of', 'the', 'sea', 'bagus']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['in', 'the', 'heart', 'of', 'the', 'sea', 'bagus']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21258</v>
+        <v>24932</v>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>di follow aja si felix banyak berita hot</t>
+          <t>kenapa tu nyommm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['di', 'follow', 'aja', 'si', 'felix', 'banyak', 'berita', 'hot']</t>
+          <t>['kenapa', 'tu', 'nyommm']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kenapa', 'itu', 'nyommm']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['follow', 'felix', 'berita', 'hot']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['follow', 'felix', 'berita', 'hot']</t>
+          <t>['nyommm']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['nyommm']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21259</v>
+        <v>24933</v>
       </c>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>miskin sekali anda hahaha</t>
+          <t>hmm gak tau kenapa seneng hahahha</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['miskin', 'sekali', 'anda', 'hahaha']</t>
+          <t>['hmm', 'gak', 'tau', 'kenapa', 'seneng', 'hahahha']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hem', 'tidak', 'tau', 'kenapa', 'senang', 'haha']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['miskin', 'hahaha']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['miskin', 'hahaha']</t>
+          <t>['hem', 'senang', 'haha']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['hem', 'senang', 'haha']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21260</v>
+        <v>24934</v>
       </c>
       <c r="C11" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>udh satu tahun corona kok gak ada yang panik kaya awal lagi sih</t>
+          <t>hm</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['udh', 'satu', 'tahun', 'corona', 'kok', 'gak', 'ada', 'yang', 'panik', 'kaya', 'awal', 'lagi', 'sih']</t>
+          <t>['hm']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['hem']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['udh', 'corona', 'panik', 'kaya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['udh', 'corona', 'panik', 'kaya']</t>
+          <t>['hem']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['hem']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21261</v>
+        <v>24935</v>
       </c>
       <c r="C12" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>abis ngeliat story orang di ucapin napi jadi pengen pas ultah di ucapin napi kpk kayanya seru hahaha</t>
+          <t>gak juga</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['abis', 'ngeliat', 'story', 'orang', 'di', 'ucapin', 'napi', 'jadi', 'pengen', 'pas', 'ultah', 'di', 'ucapin', 'napi', 'kpk', 'kayanya', 'seru', 'hahaha']</t>
+          <t>['gak', 'juga']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['tidak', 'juga']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['abis', 'ngeliat', 'story', 'orang', 'ucapin', 'napi', 'pengen', 'pas', 'ultah', 'ucapin', 'napi', 'kpk', 'kayanya', 'seru', 'hahaha']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['abis', 'ngeliat', 'story', 'orang', 'ucapin', 'napi', 'ken', 'pas', 'ultah', 'ucapin', 'napi', 'kpk', 'kaya', 'seru', 'hahaha']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21262</v>
+        <v>24936</v>
       </c>
       <c r="C13" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>happy anniversary corona anj kontol</t>
+          <t>nama lu di pake ni hahahah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['happy', 'anniversary', 'corona', 'anj', 'kontol']</t>
+          <t>['nama', 'lu', 'di', 'pake', 'ni', 'hahahah']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['nama', 'kamu', 'di', 'pakai', 'nih', 'haha']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['happy', 'anniversary', 'corona', 'anj', 'kontol']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['happy', 'anniversary', 'corona', 'anj', 'kontol']</t>
+          <t>['nama', 'pakai', 'haha']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['nama', 'pakai', 'haha']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21263</v>
+        <v>24937</v>
       </c>
       <c r="C14" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt pak barangkali perlu juga legalisasi ganja di aceh kata orang byk lap kerja yg bs dibuka dgn kehadiran industri ganj</t>
+          <t>rt kn wendywalters mana saya tauu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'pak', 'barangkali', 'perlu', 'juga', 'legalisasi', 'ganja', 'di', 'aceh', 'kata', 'orang', 'byk', 'lap', 'kerja', 'yg', 'bs', 'dibuka', 'dgn', 'kehadiran', 'industri', 'ganj']</t>
+          <t>['rt', 'kn', 'wendywalters', 'mana', 'saya', 'tauu']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'kan', 'wendywalters', 'mana', 'saya', 'tau']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['barangkali', 'legalisasi', 'ganja', 'aceh', 'orang', 'byk', 'lap', 'kerja', 'bs', 'dibuka', 'kehadiran', 'industri', 'ganj']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['barangkali', 'legalisasi', 'ganja', 'aceh', 'orang', 'byk', 'lap', 'kerja', 'bs', 'buka', 'hadir', 'industri', 'ganj']</t>
+          <t>['wendywalters']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['wendywalters']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21264</v>
+        <v>24938</v>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>hahahahhahahahaha asleee</t>
+          <t>iyaaaiyaa pakk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['hahahahhahahahaha', 'asleee']</t>
+          <t>['iyaaaiyaa', 'pakk']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['iyaaaiyaa', 'pak']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['hahahahhahahahaha', 'asleee']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['hahahahhahahahaha', 'asleee']</t>
+          <t>['iyaaaiyaa']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['iyaaaiyaa']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21265</v>
+        <v>24939</v>
       </c>
       <c r="C16" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bangsat emg laper ngantuk itu tidak menyenangkan</t>
+          <t>niii</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bangsat', 'emg', 'laper', 'ngantuk', 'itu', 'tidak', 'menyenangkan']</t>
+          <t>['niii']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['niii']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['bangsat', 'emg', 'laper', 'ngantuk', 'menyenangkan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['bangsat', 'emg', 'laper', 'ngantuk', 'senang']</t>
+          <t>['niii']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['niii']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21266</v>
+        <v>24940</v>
       </c>
       <c r="C17" t="n">
-        <v>258</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>penggaris darurat</t>
-        </is>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['penggaris', 'darurat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['penggaris', 'darurat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['penggar', 'darurat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21267</v>
+        <v>24941</v>
       </c>
       <c r="C18" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>roy kiyoshi</t>
+          <t>duit judii ku banyakkk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['roy', 'kiyoshi']</t>
+          <t>['duit', 'judii', 'ku', 'banyakkk']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['duit', 'judii', 'ku', 'banyakkk']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['roy', 'kiyoshi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['roy', 'kiyoshi']</t>
+          <t>['duit', 'judii', 'ku', 'banyakkk']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['duit', 'judi', 'ku', 'banyakkk']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21268</v>
+        <v>24942</v>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>indomie rebus dabes jam segini</t>
+          <t>gak bgt dahh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['indomie', 'rebus', 'dabes', 'jam', 'segini']</t>
+          <t>['gak', 'bgt', 'dahh']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['tidak', 'banget', 'dah']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['indomie', 'rebus', 'dabes', 'jam', 'segini']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['indomie', 'rebus', 'dabes', 'jam', 'gin']</t>
+          <t>['banget', 'dah']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['banget', 'dah']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21269</v>
+        <v>24943</v>
       </c>
       <c r="C20" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>mu chelsea mu nih</t>
+          <t>malu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mu', 'chelsea', 'mu', 'nih']</t>
+          <t>['malu']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['malu']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['mu', 'chelsea', 'mu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['mu', 'chelsea', 'mu']</t>
+          <t>['malu']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['malu']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21270</v>
+        <v>24944</v>
       </c>
       <c r="C21" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>ya begitulah akibat salah denger jadi malu wkwkwkw</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['ya', 'begitulah', 'akibat', 'salah', 'denger', 'jadi', 'malu', 'wkwkwkw']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ya', 'begitulah', 'akibat', 'salah', 'dengar', 'jadi', 'malu', 'wkwk']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['akibat', 'salah', 'dengar', 'malu', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['akibat', 'salah', 'dengar', 'malu', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21271</v>
+        <v>24945</v>
       </c>
       <c r="C22" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>anj</t>
+          <t>ibu ya ibu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['anj']</t>
+          <t>['ibu', 'ya', 'ibu']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ibu', 'ya', 'ibu']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['anj']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['anj']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21272</v>
+        <v>24946</v>
       </c>
       <c r="C23" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kalo anda tidak main ini pada saat kecil hidup anda kurang</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kalo', 'anda', 'tidak', 'main', 'ini', 'pada', 'saat', 'kecil', 'hidup', 'anda', 'kurang']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['main', 'hidup']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['main', 'hidup']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21273</v>
+        <v>24947</v>
       </c>
       <c r="C24" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt anjeng ketawa tengah malem garagara ginian fakkkk</t>
+          <t>rt bunu hi beklemiyodum</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'anjeng', 'ketawa', 'tengah', 'malem', 'garagara', 'ginian', 'fakkkk']</t>
+          <t>['rt', 'bunu', 'hi', 'beklemiyodum']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'bunu', 'hi', 'beklemiyodum']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['anjeng', 'ketawa', 'malem', 'garagara', 'ginian', 'fakkkk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['anjeng', 'ketawa', 'malem', 'garagara', 'ginian', 'fakkkk']</t>
+          <t>['bunu', 'hi', 'beklemiyodum']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bunu', 'hi', 'beklemiyodum']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21274</v>
+        <v>24948</v>
       </c>
       <c r="C25" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>tailah lupa ngerjain tugas</t>
+          <t>rt yg kecil nya pernah jadiin ini gelang kalo gak ban kapten biar kaya subasaberati kecil lu asik men</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['tailah', 'lupa', 'ngerjain', 'tugas']</t>
+          <t>['rt', 'yg', 'kecil', 'nya', 'pernah', 'jadiin', 'ini', 'gelang', 'kalo', 'gak', 'ban', 'kapten', 'biar', 'kaya', 'subasaberati', 'kecil', 'lu', 'asik', 'men']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'yang', 'kecil', 'nya', 'pernah', 'jadikan', 'ini', 'gelang', 'kalau', 'tidak', 'ban', 'kapten', 'biar', 'kayak', 'subasaberati', 'kecil', 'kamu', 'asyik', 'men']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['tailah', 'lupa', 'ngerjain', 'tugas']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['tailah', 'lupa', 'ngerjain', 'tugas']</t>
+          <t>['jadikan', 'gelang', 'ban', 'kapten', 'kayak', 'subasaberati', 'asyik', 'men']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['jadi', 'gelang', 'ban', 'kapten', 'kayak', 'subasaberati', 'asyik', 'men']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21275</v>
+        <v>24949</v>
       </c>
       <c r="C26" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>salfok sama app nya</t>
+          <t>keyeen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['salfok', 'sama', 'app', 'nya']</t>
+          <t>['keyeen']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['keyeen']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['salfok', 'app']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['salfok', 'app']</t>
+          <t>['keyeen']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['keyeen']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21276</v>
+        <v>24950</v>
       </c>
       <c r="C27" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>pengen main pubg lg</t>
+          <t>ini keren banget anj</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['pengen', 'main', 'pubg', 'lg']</t>
+          <t>['ini', 'keren', 'banget', 'anj']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['ini', 'keren', 'banget', 'anjing']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['pengen', 'main', 'pubg', 'lg']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ken', 'main', 'pubg', 'lg']</t>
+          <t>['keren', 'banget', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['keren', 'banget', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21277</v>
+        <v>24951</v>
       </c>
       <c r="C28" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt ada tuh minuman keras yg halal namanya inti syari</t>
+          <t>anda gmsw</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'tuh', 'minuman', 'keras', 'yg', 'halal', 'namanya', 'inti', 'syari']</t>
+          <t>['anda', 'gmsw']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['anda', 'gmsw']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['minuman', 'keras', 'halal', 'namanya', 'inti', 'syari']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['minum', 'keras', 'halal', 'nama', 'inti', 'syar']</t>
+          <t>['gmsw']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['gmsw']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21278</v>
+        <v>24952</v>
       </c>
       <c r="C29" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>emg tipes gampang mimisan ya bgst</t>
+          <t>toleransi jafar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['emg', 'tipes', 'gampang', 'mimisan', 'ya', 'bgst']</t>
+          <t>['toleransi', 'jafar']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['toleransi', 'jafar']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['emg', 'tipes', 'gampang', 'mimisan', 'bgst']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['emg', 'tipes', 'gampang', 'mimisan', 'bgst']</t>
+          <t>['toleransi', 'jafar']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['toleransi', 'jafar']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21279</v>
+        <v>24953</v>
       </c>
       <c r="C30" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt holy shit taslim</t>
+          <t>rt panjang umur skateboarders</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'holy', 'shit', 'taslim']</t>
+          <t>['rt', 'panjang', 'umur', 'skateboarders']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'panjang', 'umur', 'skateboarders']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['holy', 'shit', 'taslim']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['holy', 'shit', 'taslim']</t>
+          <t>['umur', 'skateboarders']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['umur', 'skateboarders']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21280</v>
+        <v>24954</v>
       </c>
       <c r="C31" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sama anjj</t>
+          <t>tinggal dicatcall balik karna mereka cuman becanda</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sama', 'anjj']</t>
+          <t>['tinggal', 'dicatcall', 'balik', 'karna', 'mereka', 'cuman', 'becanda']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tinggal', 'dicatcall', 'balik', 'karena', 'mereka', 'cuma', 'bercanda']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['anjj']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['anjj']</t>
+          <t>['tinggal', 'dicatcall', 'bercanda']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['tinggal', 'dicatcall', 'canda']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21281</v>
+        <v>24955</v>
       </c>
       <c r="C32" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>kalo beli barang dari luar pake kredit aman gak ada yang pernah</t>
+          <t>rt menarik</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['kalo', 'beli', 'barang', 'dari', 'luar', 'pake', 'kredit', 'aman', 'gak', 'ada', 'yang', 'pernah']</t>
+          <t>['rt', 'menarik']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'menarik']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['beli', 'barang', 'pake', 'kredit', 'aman']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['beli', 'barang', 'pake', 'kredit', 'aman']</t>
+          <t>['menarik']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tarik']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21282</v>
+        <v>24956</v>
       </c>
       <c r="C33" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>tidur engga tapi kelas full sampe sore</t>
+          <t>apa kah civic nouva akan kegoreng dengan dibeli orang ini wkwkwk yang ngerti aja</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['tidur', 'engga', 'tapi', 'kelas', 'full', 'sampe', 'sore']</t>
+          <t>['apa', 'kah', 'civic', 'nouva', 'akan', 'kegoreng', 'dengan', 'dibeli', 'orang', 'ini', 'wkwkwk', 'yang', 'ngerti', 'aja']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['apa', 'kah', 'civic', 'nouva', 'akan', 'kegoreng', 'dengan', 'dibeli', 'orang', 'ini', 'wkwk', 'yang', 'mengerti', 'saja']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['tidur', 'engga', 'kelas', 'full', 'sampe', 'sore']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['tidur', 'engga', 'kelas', 'full', 'sampe', 'sore']</t>
+          <t>['kah', 'civic', 'nouva', 'kegoreng', 'dibeli', 'orang', 'wkwk', 'mengerti']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['kah', 'civic', 'nouva', 'goreng', 'beli', 'orang', 'wkwk', 'erti']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21283</v>
+        <v>24957</v>
       </c>
       <c r="C34" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>udh lebih dari seminggu tidur pada saat matahari sudah muncul</t>
+          <t>nyesel saya tidak nyampe bawah</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['udh', 'lebih', 'dari', 'seminggu', 'tidur', 'pada', 'saat', 'matahari', 'sudah', 'muncul']</t>
+          <t>['nyesel', 'saya', 'tidak', 'nyampe', 'bawah']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['menyesal', 'saya', 'tidak', 'sampai', 'bawah']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['udh', 'seminggu', 'tidur', 'matahari', 'muncul']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['udh', 'minggu', 'tidur', 'matahari', 'muncul']</t>
+          <t>['menyesal']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['sesal']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21284</v>
+        <v>24958</v>
       </c>
       <c r="C35" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>giliran tidur cepet bangun cepet</t>
+          <t>emg dah orang tuna netra paling jago mijit buat keseleo wkwkwk</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['giliran', 'tidur', 'cepet', 'bangun', 'cepet']</t>
+          <t>['emg', 'dah', 'orang', 'tuna', 'netra', 'paling', 'jago', 'mijit', 'buat', 'keseleo', 'wkwkwk']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['memang', 'sudah', 'orang', 'tuna', 'netra', 'paling', 'jago', 'mijit', 'buat', 'keseleo', 'wkwk']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['giliran', 'tidur', 'cepet', 'bangun', 'cepet']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['gilir', 'tidur', 'cepet', 'bangun', 'cepet']</t>
+          <t>['orang', 'tuna', 'netra', 'jago', 'mijit', 'keseleo', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['orang', 'tuna', 'netra', 'jago', 'mijit', 'keseleo', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21285</v>
+        <v>24959</v>
       </c>
       <c r="C36" t="n">
-        <v>258</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>reflek anda</t>
-        </is>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['reflek', 'anda']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['reflek']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['reflek']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1907,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21286</v>
+        <v>24960</v>
       </c>
       <c r="C37" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>susah sekali tidur malem bangun pagi</t>
+          <t>kalo jadi inget mprat wkakaka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['susah', 'sekali', 'tidur', 'malem', 'bangun', 'pagi']</t>
+          <t>['kalo', 'jadi', 'inget', 'mprat', 'wkakaka']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kalau', 'jadi', 'ingat', 'mprat', 'wkakaka']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['susah', 'tidur', 'malem', 'bangun', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['susah', 'tidur', 'malem', 'bangun', 'pagi']</t>
+          <t>['mprat', 'wkakaka']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['mprat', 'wkakaka']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1948,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21287</v>
+        <v>24961</v>
       </c>
       <c r="C38" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>yuk yuk ditunggu kepala buntungnya wkwk</t>
+          <t>gue dukung lo nyom</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['yuk', 'yuk', 'ditunggu', 'kepala', 'buntungnya', 'wkwk']</t>
+          <t>['gue', 'dukung', 'lo', 'nyom']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['gue', 'dukung', 'kamu', 'nyom']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['yuk', 'yuk', 'ditunggu', 'kepala', 'buntungnya', 'wkwk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['yuk', 'yuk', 'tunggu', 'kepala', 'buntung', 'wkwk']</t>
+          <t>['gue', 'dukung', 'nyom']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['gue', 'dukung', 'nyom']</t>
         </is>
       </c>
     </row>
@@ -1807,30 +1989,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21288</v>
+        <v>24962</v>
       </c>
       <c r="C39" t="n">
-        <v>258</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>298</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>yabegitulah</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yabegitulah']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['yabegitulah']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yabegitulah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['yabegitulah']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2030,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21289</v>
+        <v>24963</v>
       </c>
       <c r="C40" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ada seminar tapi belom tidur yuhuu</t>
+          <t>rt thinker beautiful people do beautiful things</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['ada', 'seminar', 'tapi', 'belom', 'tidur', 'yuhuu']</t>
+          <t>['rt', 'thinker', 'beautiful', 'people', 'do', 'beautiful', 'things']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'thinker', 'cantik', 'people', 'do', 'cantik', 'berpikir']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['seminar', 'belom', 'tidur', 'yuhuu']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['seminar', 'bom', 'tidur', 'yuhuu']</t>
+          <t>['thinker', 'cantik', 'people', 'do', 'cantik', 'berpikir']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['thinker', 'cantik', 'people', 'do', 'cantik', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2071,2454 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21290</v>
+        <v>24964</v>
       </c>
       <c r="C41" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>ada yang baru nihhh</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['ada', 'yang', 'baru', 'nihhh']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['ada', 'yang', 'baru', 'nih']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>24965</v>
+      </c>
+      <c r="C42" t="n">
+        <v>298</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>kegabutan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['kegabutan']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['kegabutan']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['kegabutan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kegabutan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24966</v>
+      </c>
+      <c r="C43" t="n">
+        <v>298</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>bangsat</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>24967</v>
+      </c>
+      <c r="C44" t="n">
+        <v>298</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>orang islam marah gak ya kalo duit pajak miras di korupsi atau yang berhubungan hahaha</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['orang', 'islam', 'marah', 'gak', 'ya', 'kalo', 'duit', 'pajak', 'miras', 'di', 'korupsi', 'atau', 'yang', 'berhubungan', 'hahaha']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['orang', 'islam', 'marah', 'tidak', 'ya', 'kalau', 'duit', 'pajak', 'minuman, keras', 'di', 'korupsi', 'atau', 'yang', 'berhubungan', 'haha']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['orang', 'islam', 'marah', 'duit', 'pajak', 'minuman, keras', 'korupsi', 'berhubungan', 'haha']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['orang', 'islam', 'marah', 'duit', 'pajak', 'minum keras', 'korupsi', 'hubung', 'haha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24968</v>
+      </c>
+      <c r="C45" t="n">
+        <v>298</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>asikk dicabutt niii</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['asikk', 'dicabutt', 'niii']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['asikk', 'dicabutt', 'niii']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['asikk', 'dicabutt', 'niii']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['asikk', 'dicabutt', 'niii']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24969</v>
+      </c>
+      <c r="C46" t="n">
+        <v>298</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>di follow aja si felix banyak berita hot</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['di', 'follow', 'aja', 'si', 'felix', 'banyak', 'berita', 'hot']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['di', 'follow', 'saja', 'sih', 'felix', 'banyak', 'berita', 'hot']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['follow', 'felix', 'berita', 'hot']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['follow', 'felix', 'berita', 'hot']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24970</v>
+      </c>
+      <c r="C47" t="n">
+        <v>298</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>miskin sekali anda hahaha</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['miskin', 'sekali', 'anda', 'hahaha']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['miskin', 'sekali', 'anda', 'haha']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['miskin', 'haha']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['miskin', 'haha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24971</v>
+      </c>
+      <c r="C48" t="n">
+        <v>298</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>udh satu tahun corona kok gak ada yang panik kaya awal lagi sih</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['udh', 'satu', 'tahun', 'corona', 'kok', 'gak', 'ada', 'yang', 'panik', 'kaya', 'awal', 'lagi', 'sih']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['sudah', 'satu', 'tahun', 'corona', 'kok', 'tidak', 'ada', 'yang', 'panik', 'kayak', 'awal', 'lagi', 'sih']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['corona', 'panik', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['corona', 'panik', 'kayak']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>24972</v>
+      </c>
+      <c r="C49" t="n">
+        <v>298</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>abis ngeliat story orang di ucapin napi jadi pengen pas ultah di ucapin napi kpk kayanya seru hahaha</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['abis', 'ngeliat', 'story', 'orang', 'di', 'ucapin', 'napi', 'jadi', 'pengen', 'pas', 'ultah', 'di', 'ucapin', 'napi', 'kpk', 'kayanya', 'seru', 'hahaha']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['habis', 'melihat', 'cerita', 'orang', 'di', 'mengucapkan', 'napi', 'jadi', 'ingin', 'pas', 'ulang, tahun', 'di', 'mengucapkan', 'napi', 'komisi, pemberantasan, korupsi', 'sepertinya', 'seru', 'haha']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['habis', 'cerita', 'orang', 'napi', 'pas', 'ulang, tahun', 'napi', 'komisi, pemberantasan, korupsi', 'seru', 'haha']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['habis', 'cerita', 'orang', 'napi', 'pas', 'ulang tahun', 'napi', 'komisi berantas korupsi', 'seru', 'haha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>24973</v>
+      </c>
+      <c r="C50" t="n">
+        <v>298</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>happy anniversary corona anj kontol</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['happy', 'anniversary', 'corona', 'anj', 'kontol']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['happy', 'anniversary', 'corona', 'anjing', 'kontol']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['happy', 'anniversary', 'corona', 'anjing', 'kontol']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['happy', 'anniversary', 'corona', 'anjing', 'kontol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24974</v>
+      </c>
+      <c r="C51" t="n">
+        <v>298</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>rt pak barangkali perlu juga legalisasi ganja di aceh kata orang byk lap kerja yg bs dibuka dgn kehadiran industri ganj</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['rt', 'pak', 'barangkali', 'perlu', 'juga', 'legalisasi', 'ganja', 'di', 'aceh', 'kata', 'orang', 'byk', 'lap', 'kerja', 'yg', 'bs', 'dibuka', 'dgn', 'kehadiran', 'industri', 'ganj']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['rt', 'pak', 'barangkali', 'perlu', 'juga', 'legalisasi', 'ganja', 'di', 'aceh', 'kata', 'orang', 'banyak', 'lap', 'kerja', 'yang', 'bisa', 'dibuka', 'dengan', 'kehadiran', 'industri', 'ganj']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['barangkali', 'legalisasi', 'ganja', 'aceh', 'orang', 'lap', 'kerja', 'dibuka', 'kehadiran', 'industri', 'ganj']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['barangkali', 'legalisasi', 'ganja', 'aceh', 'orang', 'lap', 'kerja', 'buka', 'hadir', 'industri', 'ganj']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24975</v>
+      </c>
+      <c r="C52" t="n">
+        <v>298</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>hahahahhahahahaha asleee</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['hahahahhahahahaha', 'asleee']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['hahahahhahahahaha', 'asleee']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['hahahahhahahahaha', 'asleee']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['hahahahhahahahaha', 'asleee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24976</v>
+      </c>
+      <c r="C53" t="n">
+        <v>298</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>bangsat emg laper ngantuk itu tidak menyenangkan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['bangsat', 'emg', 'laper', 'ngantuk', 'itu', 'tidak', 'menyenangkan']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['bangsat', 'memang', 'lapar', 'mengantuk', 'itu', 'tidak', 'menyenangkan']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['bangsat', 'lapar', 'mengantuk', 'menyenangkan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['bangsat', 'lapar', 'antuk', 'senang']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24977</v>
+      </c>
+      <c r="C54" t="n">
+        <v>298</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>penggaris darurat</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['penggaris', 'darurat']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['penggaris', 'darurat']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['penggaris', 'darurat']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['penggar', 'darurat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24978</v>
+      </c>
+      <c r="C55" t="n">
+        <v>298</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>roy kiyoshi</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['roy', 'kiyoshi']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['roy', 'kiyoshi']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['roy', 'kiyoshi']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['roy', 'kiyoshi']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24979</v>
+      </c>
+      <c r="C56" t="n">
+        <v>298</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>indomie rebus dabes jam segini</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['indomie', 'rebus', 'dabes', 'jam', 'segini']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['indomie', 'rebus', 'dabes', 'jam', 'segini']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['indomie', 'rebus', 'dabes', 'jam', 'segini']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['indomie', 'rebus', 'dabes', 'jam', 'gin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24980</v>
+      </c>
+      <c r="C57" t="n">
+        <v>298</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>mu chelsea mu nih</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['mu', 'chelsea', 'mu', 'nih']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['mu', 'chelsea', 'mu', 'nih']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['mu', 'chelsea', 'mu']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['mu', 'chelsea', 'mu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24981</v>
+      </c>
+      <c r="C58" t="n">
+        <v>298</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24982</v>
+      </c>
+      <c r="C59" t="n">
+        <v>298</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>anj</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['anj']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['anjing']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['anjing']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['anjing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>24983</v>
+      </c>
+      <c r="C60" t="n">
+        <v>298</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>kalo anda tidak main ini pada saat kecil hidup anda kurang</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['kalo', 'anda', 'tidak', 'main', 'ini', 'pada', 'saat', 'kecil', 'hidup', 'anda', 'kurang']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['kalau', 'anda', 'tidak', 'main', 'ini', 'pada', 'saat', 'kecil', 'hidup', 'anda', 'kurang']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['main', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['main', 'hidup']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>24984</v>
+      </c>
+      <c r="C61" t="n">
+        <v>298</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>rt anjeng ketawa tengah malem garagara ginian fakkkk</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['rt', 'anjeng', 'ketawa', 'tengah', 'malem', 'garagara', 'ginian', 'fakkkk']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['rt', 'anjing', 'tertawa', 'tengah', 'malam', 'gara, gara', 'beginian', 'fakkkk']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['anjing', 'tertawa', 'malam', 'gara, gara', 'fakkkk']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['anjing', 'tertawa', 'malam', 'gara gara', 'fakkkk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>24985</v>
+      </c>
+      <c r="C62" t="n">
+        <v>298</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>tailah lupa ngerjain tugas</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['tailah', 'lupa', 'ngerjain', 'tugas']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['tailah', 'lupa', 'mengerjakan', 'tugas']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['tailah', 'lupa', 'tugas']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['tailah', 'lupa', 'tugas']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>24986</v>
+      </c>
+      <c r="C63" t="n">
+        <v>298</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>salfok sama app nya</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['salfok', 'sama', 'app', 'nya']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['salah, fokus', 'sama', 'app', 'nya']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['salah, fokus', 'app']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['salah fokus', 'app']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24987</v>
+      </c>
+      <c r="C64" t="n">
+        <v>298</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>pengen main pubg lg</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['pengen', 'main', 'pubg', 'lg']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['ingin', 'main', 'pubg', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['main', 'pubg']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['main', 'pubg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24988</v>
+      </c>
+      <c r="C65" t="n">
+        <v>298</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>rt ada tuh minuman keras yg halal namanya inti syari</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['rt', 'ada', 'tuh', 'minuman', 'keras', 'yg', 'halal', 'namanya', 'inti', 'syari']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['rt', 'ada', 'itu', 'minuman', 'keras', 'yang', 'halal', 'namanya', 'inti', 'syariat']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['minuman', 'keras', 'halal', 'namanya', 'inti', 'syariat']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['minum', 'keras', 'halal', 'nama', 'inti', 'syariat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>24989</v>
+      </c>
+      <c r="C66" t="n">
+        <v>298</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>emg tipes gampang mimisan ya bgst</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['emg', 'tipes', 'gampang', 'mimisan', 'ya', 'bgst']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['memang', 'tipes', 'gampang', 'mimisan', 'ya', 'bangsat']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['tipes', 'gampang', 'mimisan', 'bangsat']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tipes', 'gampang', 'mimisan', 'bangsat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>24990</v>
+      </c>
+      <c r="C67" t="n">
+        <v>298</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>rt holy shit taslim</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['rt', 'holy', 'shit', 'taslim']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['rt', 'holy', 'shit', 'taslim']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['holy', 'shit', 'taslim']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['holy', 'shit', 'taslim']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>24991</v>
+      </c>
+      <c r="C68" t="n">
+        <v>298</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>sama anjj</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['sama', 'anjj']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['sama', 'anjj']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['anjj']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['anjj']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>24992</v>
+      </c>
+      <c r="C69" t="n">
+        <v>298</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>kalo beli barang dari luar pake kredit aman gak ada yang pernah</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['kalo', 'beli', 'barang', 'dari', 'luar', 'pake', 'kredit', 'aman', 'gak', 'ada', 'yang', 'pernah']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['kalau', 'beli', 'barang', 'dari', 'luar', 'pakai', 'kredit', 'aman', 'tidak', 'ada', 'yang', 'pernah']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['beli', 'barang', 'pakai', 'kredit', 'aman']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['beli', 'barang', 'pakai', 'kredit', 'aman']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>24993</v>
+      </c>
+      <c r="C70" t="n">
+        <v>298</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>tidur engga tapi kelas full sampe sore</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['tidur', 'engga', 'tapi', 'kelas', 'full', 'sampe', 'sore']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['tidur', 'tidak', 'tapi', 'kelas', 'full', 'sampai', 'sore']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['tidur', 'kelas', 'full', 'sore']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['tidur', 'kelas', 'full', 'sore']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24994</v>
+      </c>
+      <c r="C71" t="n">
+        <v>298</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>udh lebih dari seminggu tidur pada saat matahari sudah muncul</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['udh', 'lebih', 'dari', 'seminggu', 'tidur', 'pada', 'saat', 'matahari', 'sudah', 'muncul']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['sudah', 'lebih', 'dari', 'seminggu', 'tidur', 'pada', 'saat', 'matahari', 'sudah', 'muncul']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['seminggu', 'tidur', 'matahari', 'muncul']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['minggu', 'tidur', 'matahari', 'muncul']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>24995</v>
+      </c>
+      <c r="C72" t="n">
+        <v>298</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>giliran tidur cepet bangun cepet</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['giliran', 'tidur', 'cepet', 'bangun', 'cepet']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['giliran', 'tidur', 'cepat', 'bangun', 'cepat']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['giliran', 'tidur', 'cepat', 'bangun', 'cepat']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['gilir', 'tidur', 'cepat', 'bangun', 'cepat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>24996</v>
+      </c>
+      <c r="C73" t="n">
+        <v>298</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>reflek anda</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['reflek', 'anda']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['refleks', 'anda']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['refleks']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['refleks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24997</v>
+      </c>
+      <c r="C74" t="n">
+        <v>298</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>susah sekali tidur malem bangun pagi</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['susah', 'sekali', 'tidur', 'malem', 'bangun', 'pagi']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['susah', 'sekali', 'tidur', 'malam', 'bangun', 'pagi']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['susah', 'tidur', 'malam', 'bangun', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['susah', 'tidur', 'malam', 'bangun', 'pagi']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>24998</v>
+      </c>
+      <c r="C75" t="n">
+        <v>298</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>yuk yuk ditunggu kepala buntungnya wkwk</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['yuk', 'yuk', 'ditunggu', 'kepala', 'buntungnya', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['yuk', 'yuk', 'ditunggu', 'kepala', 'buntungnya', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['yuk', 'yuk', 'ditunggu', 'kepala', 'buntungnya', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['yuk', 'yuk', 'tunggu', 'kepala', 'buntung', 'wkwk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>24999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>298</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>298</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ada seminar tapi belom tidur yuhuu</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['ada', 'seminar', 'tapi', 'belom', 'tidur', 'yuhuu']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['ada', 'seminar', 'tapi', 'belum', 'tidur', 'iya']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['seminar', 'tidur', 'iya']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['seminar', 'tidur', 'iya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>25001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>298</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>gue pernah nginep disana tidak seperti itu</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>['gue', 'pernah', 'nginep', 'disana', 'tidak', 'seperti', 'itu']</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['gue', 'pernah', 'menginap', 'di, sana', 'tidak', 'seperti', 'itu']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['gue', 'nginep', 'disana']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['gue', 'nginep', 'sana']</t>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['gue', 'menginap', 'di, sana']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['gue', 'inap', 'di sana']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>25002</v>
+      </c>
+      <c r="C79" t="n">
+        <v>298</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>rt istesem byle vuramam</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['rt', 'istesem', 'byle', 'vuramam']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['rt', 'istesem', 'byle', 'vuramam']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['istesem', 'byle', 'vuramam']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['istesem', 'byle', 'vuramam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25003</v>
+      </c>
+      <c r="C80" t="n">
+        <v>298</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>pengen punya</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['pengen', 'punya']</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['ingin', 'punya']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>25004</v>
+      </c>
+      <c r="C81" t="n">
+        <v>298</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>pengen sate klatak di jogja</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['pengen', 'sate', 'klatak', 'di', 'jogja']</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['ingin', 'sate', 'klatak', 'di', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['sate', 'klatak', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['sate', 'klatak', 'yoyakarta']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>25005</v>
+      </c>
+      <c r="C82" t="n">
+        <v>298</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>emg jam tangan itu bangsat ye udh nyampe duitnya naik  lipat kntl</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['emg', 'jam', 'tangan', 'itu', 'bangsat', 'ye', 'udh', 'nyampe', 'duitnya', 'naik', 'lipat', 'kntl']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['memang', 'jam', 'tangan', 'itu', 'bangsat', 'iya', 'sudah', 'sampai', 'duitnya', 'naik', 'lipat', 'kontol']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['jam', 'tangan', 'bangsat', 'iya', 'duitnya', 'lipat', 'kontol']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['jam', 'tangan', 'bangsat', 'iya', 'duit', 'lipat', 'kontol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>25006</v>
+      </c>
+      <c r="C83" t="n">
+        <v>298</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>set waktuny tidur</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['set', 'waktuny', 'tidur']</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['set', 'waktunya', 'tidur']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['set', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['set', 'tidur']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25007</v>
+      </c>
+      <c r="C84" t="n">
+        <v>298</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>fak gue kira ngomong okeyy kecowo itu  aja ternyata kaya jiji kalo dari orang lain wkwkw</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['fak', 'gue', 'kira', 'ngomong', 'okeyy', 'kecowo', 'itu', 'aja', 'ternyata', 'kaya', 'jiji', 'kalo', 'dari', 'orang', 'lain', 'wkwkw']</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['fuck', 'gue', 'kira', 'berbicara', 'okeyy', 'kecowo', 'itu', 'saja', 'ternyata', 'kayak', 'jiji', 'kalau', 'dari', 'orang', 'lain', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['fuck', 'gue', 'berbicara', 'okeyy', 'kecowo', 'kayak', 'jiji', 'orang', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['fuck', 'gue', 'bicara', 'okeyy', 'kecowo', 'kayak', 'jiji', 'orang', 'wkwk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>25008</v>
+      </c>
+      <c r="C85" t="n">
+        <v>298</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>sumpah dapet foto yang udh pasti lucu tapi pasti ada yang tersinggung faklah</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>['sumpah', 'dapet', 'foto', 'yang', 'udh', 'pasti', 'lucu', 'tapi', 'pasti', 'ada', 'yang', 'tersinggung', 'faklah']</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['sumpah', 'dapat', 'foto', 'yang', 'sudah', 'pasti', 'lucu', 'tapi', 'pasti', 'ada', 'yang', 'tersinggung', 'faklah']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['sumpah', 'foto', 'lucu', 'tersinggung', 'faklah']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['sumpah', 'foto', 'lucu', 'singgung', 'faklah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>25009</v>
+      </c>
+      <c r="C86" t="n">
+        <v>298</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>yok semangat walaupun senen numpuk</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['yok', 'semangat', 'walaupun', 'senen', 'numpuk']</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['ayo', 'semangat', 'walaupun', 'senin', 'menumpuk']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['ayo', 'semangat', 'senin', 'menumpuk']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['ayo', 'semangat', 'senin', 'tumpuk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>25010</v>
+      </c>
+      <c r="C87" t="n">
+        <v>298</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>hahhahaha ada bapanya ajiss wkakakak</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['hahhahaha', 'ada', 'bapanya', 'ajiss', 'wkakakak']</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['hahhahaha', 'ada', 'bapaknya', 'ajiss', 'wkakakak']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['hahhahaha', 'bapaknya', 'ajiss', 'wkakakak']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['hahhahaha', 'bapak', 'ajiss', 'wkakakak']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>25011</v>
+      </c>
+      <c r="C88" t="n">
+        <v>298</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>betadin cina emg paling bangsat rasanya</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['betadin', 'cina', 'emg', 'paling', 'bangsat', 'rasanya']</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['betadin', 'cina', 'memang', 'paling', 'bangsat', 'rasanya']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['betadin', 'cina', 'bangsat']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['betadin', 'cina', 'bangsat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>25012</v>
+      </c>
+      <c r="C89" t="n">
+        <v>298</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>mungkin kalo disana banyak air akan tau perbedaan air dengan alcohol wkwkk</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['mungkin', 'kalo', 'disana', 'banyak', 'air', 'akan', 'tau', 'perbedaan', 'air', 'dengan', 'alcohol', 'wkwkk']</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['mungkin', 'kalau', 'di, sana', 'banyak', 'air', 'akan', 'tau', 'perbedaan', 'air', 'dengan', 'alcohol', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['di, sana', 'air', 'perbedaan', 'air', 'alcohol', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['di sana', 'air', 'beda', 'air', 'alcohol', 'wkwk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>25013</v>
+      </c>
+      <c r="C90" t="n">
+        <v>298</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>jekkkkpottt</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['jekkkkpottt']</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['jekkkkpottt']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['jekkkkpottt']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['jekkkkpottt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25014</v>
+      </c>
+      <c r="C91" t="n">
+        <v>298</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>emg kewajibanya bukan baik</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['emg', 'kewajibanya', 'bukan', 'baik']</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['memang', 'kewajibanya', 'bukan', 'baik']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['kewajibanya']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['kewajibanya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>25015</v>
+      </c>
+      <c r="C92" t="n">
+        <v>298</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>kasian dah yang gancet terus diliatin warga</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['kasian', 'dah', 'yang', 'gancet', 'terus', 'diliatin', 'warga']</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['kasihan', 'sudah', 'yang', 'gancet', 'terus', 'dilihat', 'warga']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['kasihan', 'gancet', 'warga']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['kasihan', 'gancet', 'warga']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>25016</v>
+      </c>
+      <c r="C93" t="n">
+        <v>298</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>bundaku dabes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['bundaku', 'dabes']</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['bundaku', 'dabes']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['bundaku', 'dabes']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['bunda', 'dabes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>25017</v>
+      </c>
+      <c r="C94" t="n">
+        <v>298</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>cek kesehatan yang jadi hari itu dimana ya dan harganya</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['cek', 'kesehatan', 'yang', 'jadi', 'hari', 'itu', 'dimana', 'ya', 'dan', 'harganya']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['cek', 'kesehatan', 'yang', 'jadi', 'hari', 'itu', 'dimana', 'ya', 'dan', 'harganya']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['cek', 'kesehatan', 'dimana', 'harganya']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['cek', 'sehat', 'mana', 'harga']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>25018</v>
+      </c>
+      <c r="C95" t="n">
+        <v>298</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>salfok</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['salfok']</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['salah, fokus']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['salah, fokus']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['salah fokus']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25019</v>
+      </c>
+      <c r="C96" t="n">
+        <v>298</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>emg di kaskus adee</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['emg', 'di', 'kaskus', 'adee']</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['memang', 'di', 'kaskus', 'adee']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['kaskus', 'adee']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['kaskus', 'adee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>25020</v>
+      </c>
+      <c r="C97" t="n">
+        <v>298</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>hiya hiya jadi bingung</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['hiya', 'hiya', 'jadi', 'bingung']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['hiya', 'hiya', 'jadi', 'bingung']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['hiya', 'hiya', 'bingung']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['hiya', 'hiya', 'bingung']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>25021</v>
+      </c>
+      <c r="C98" t="n">
+        <v>298</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>gan itu dari kata apa si kaya masih ada gan</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['gan', 'itu', 'dari', 'kata', 'apa', 'si', 'kaya', 'masih', 'ada', 'gan']</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['juragan', 'itu', 'dari', 'kata', 'apa', 'sih', 'kayak', 'masih', 'ada', 'juragan']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['juragan', 'kayak', 'juragan']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['juragan', 'kayak', 'juragan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>25022</v>
+      </c>
+      <c r="C99" t="n">
+        <v>298</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>tailah jam tangan yang gue pengen diskonya kenaapa akhir bulann sii anjjjj lg anj anj anj</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['tailah', 'jam', 'tangan', 'yang', 'gue', 'pengen', 'diskonya', 'kenaapa', 'akhir', 'bulann', 'sii', 'anjjjj', 'lg', 'anj', 'anj', 'anj']</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['tailah', 'jam', 'tangan', 'yang', 'gue', 'ingin', 'diskonya', 'kenaapa', 'akhir', 'bulann', 'sih', 'anjjjj', 'lagi', 'anjing', 'anjing', 'anjing']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['tailah', 'jam', 'tangan', 'gue', 'diskonya', 'kenaapa', 'bulann', 'anjjjj', 'anjing', 'anjing', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['tailah', 'jam', 'tangan', 'gue', 'disko', 'kenaapa', 'bulann', 'anjjjj', 'anjing', 'anjing', 'anjing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25023</v>
+      </c>
+      <c r="C100" t="n">
+        <v>298</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>kyuubi</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['kyuubi']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['kyuubi']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['kyuubi']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['kyuubi']</t>
         </is>
       </c>
     </row>
